--- a/medicine/Sexualité et sexologie/Margaux_Fragoso/Margaux_Fragoso.xlsx
+++ b/medicine/Sexualité et sexologie/Margaux_Fragoso/Margaux_Fragoso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Margaux Artemia Fragoso ( /ˈ m ɑːr ɡ oʊ f r ə ˈ ɡ oʊ s oʊ ) née le 15 avril 1979 et morte le 23 juin 2017,  est une autrice américaine, surtout connue pour ses mémoires Tiger, Tiger, qui retrace son parcours de victime d'abus sexuels durant 14 années[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Margaux Artemia Fragoso ( /ˈ m ɑːr ɡ oʊ f r ə ˈ ɡ oʊ s oʊ ) née le 15 avril 1979 et morte le 23 juin 2017,  est une autrice américaine, surtout connue pour ses mémoires Tiger, Tiger, qui retrace son parcours de victime d'abus sexuels durant 14 années.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Enfance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fragoso nait dans une famille ouvrière et grandit à Union City, New Jersey. Son père est un bijoutier portoricain alcoolique et colérique tandis que sa mère, d'origine suédoise, norvégienne et japonaise[4], souffre d'une grave maladie mentale, nécessitant plusieurs hospitalisations. Dès l'âge de sept ans, Fragoso est accueillie, soignée et agressée sexuellement par un quinquagénaire, auquel elle donne le pseudonyme de « Peter Curran » dans ses mémoires Tiger, Tiger[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fragoso nait dans une famille ouvrière et grandit à Union City, New Jersey. Son père est un bijoutier portoricain alcoolique et colérique tandis que sa mère, d'origine suédoise, norvégienne et japonaise, souffre d'une grave maladie mentale, nécessitant plusieurs hospitalisations. Dès l'âge de sept ans, Fragoso est accueillie, soignée et agressée sexuellement par un quinquagénaire, auquel elle donne le pseudonyme de « Peter Curran » dans ses mémoires Tiger, Tiger,.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fragoso fréquente la New Jersey City University (en), puis l'Université de Binghamton, où elle obtient un doctorat en écriture créative en 2009[4],[7]. Après avoir publié des essais et des poèmes[8], en 2011 elle publie Tiger, Tiger : A Memoir, qui devient un best-seller[9].
-Le titre du livre se réfère à un jeu auquel elle jouait avec son agresseur, agé d'une cinquantaine d'années, et évoque aussi la question posée par William Blakes dans son poème The Tyger[10] : est-ce que ce qui a créé le prédateur est aussi ce qui a créé sa proie ?[11]. 
-Le livre de Fragoso est traduit en 20 langues et demeure le seul roman publié de Fragoso[8],[10]. La version française est traduite par Marie Darrieussecq et publiée en 2012 chez Flammarion[12].  
-L'université de New Jersey City attribue un prix depuis 2018, Margaux Fragoso Literary Courage Award en sa mémoire[13]. 
-L'autrice Neige Sinno, également victime d'abus sexuels fait référence au livre de Fragoso dans son roman Triste Tigre, publié en 2023[14].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fragoso fréquente la New Jersey City University (en), puis l'Université de Binghamton, où elle obtient un doctorat en écriture créative en 2009,. Après avoir publié des essais et des poèmes, en 2011 elle publie Tiger, Tiger : A Memoir, qui devient un best-seller.
+Le titre du livre se réfère à un jeu auquel elle jouait avec son agresseur, agé d'une cinquantaine d'années, et évoque aussi la question posée par William Blakes dans son poème The Tyger : est-ce que ce qui a créé le prédateur est aussi ce qui a créé sa proie ?. 
+Le livre de Fragoso est traduit en 20 langues et demeure le seul roman publié de Fragoso,. La version française est traduite par Marie Darrieussecq et publiée en 2012 chez Flammarion.  
+L'université de New Jersey City attribue un prix depuis 2018, Margaux Fragoso Literary Courage Award en sa mémoire. 
+L'autrice Neige Sinno, également victime d'abus sexuels fait référence au livre de Fragoso dans son roman Triste Tigre, publié en 2023.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Vie privée et mort</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fragoso s'est mariée à deux reprises, la première fois avec Steve McGowan, avec qui elle a eu une fille, et en 2010, elle épouse Tom O'Connor. Elle meurt d'un cancer de l'ovaire en 2017, à l'âge de 38 ans[15],[10],[16].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fragoso s'est mariée à deux reprises, la première fois avec Steve McGowan, avec qui elle a eu une fille, et en 2010, elle épouse Tom O'Connor. Elle meurt d'un cancer de l'ovaire en 2017, à l'âge de 38 ans.
 </t>
         </is>
       </c>
